--- a/data_variable_description.xlsx
+++ b/data_variable_description.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
   <si>
     <t>Dataset column</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>Experienced any sexual violence</t>
+  </si>
+  <si>
+    <t>num_vio</t>
+  </si>
+  <si>
+    <t>Number of violence types has experienced</t>
   </si>
   <si>
     <t>education</t>
@@ -117,22 +123,10 @@
     <t xml:space="preserve">Owns a house alone or jointly </t>
   </si>
   <si>
-    <t>land_owenership</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owns land alone or jointly </t>
-  </si>
-  <si>
     <t>if_own_house</t>
   </si>
   <si>
     <t>Whether the respondent owns house alone or jointly</t>
-  </si>
-  <si>
-    <t>if_own_land</t>
-  </si>
-  <si>
-    <t>Whether the respondent owns land alone or jointly</t>
   </si>
   <si>
     <t>if_employment</t>
@@ -303,6 +297,9 @@
   </si>
   <si>
     <t>v745b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owns land alone or jointly </t>
   </si>
   <si>
     <t>v746</t>
@@ -702,10 +699,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -713,7 +710,7 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -721,7 +718,7 @@
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -729,7 +726,7 @@
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -758,26 +755,26 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -785,7 +782,7 @@
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -793,7 +790,7 @@
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -801,7 +798,7 @@
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -853,37 +850,40 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="6" t="s">
         <v>62</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34">
@@ -891,10 +891,10 @@
         <v>66</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -902,10 +902,10 @@
         <v>68</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -913,43 +913,43 @@
         <v>70</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>23</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -957,10 +957,10 @@
         <v>75</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
@@ -979,32 +979,32 @@
         <v>79</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="C44" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
@@ -1012,21 +1012,21 @@
         <v>83</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
@@ -1034,10 +1034,10 @@
         <v>86</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48">
@@ -1048,18 +1048,18 @@
         <v>43</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
@@ -1070,7 +1070,7 @@
         <v>47</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51">
@@ -1081,7 +1081,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
@@ -1092,7 +1092,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53">
@@ -1103,7 +1103,7 @@
         <v>53</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
@@ -1114,7 +1114,7 @@
         <v>55</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55">
@@ -1125,18 +1125,7 @@
         <v>57</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
